--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/E/15/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/E/15/seed5/result_data_RandomForest.xlsx
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>18.12040000000001</v>
+        <v>18.16350000000002</v>
       </c>
     </row>
     <row r="13">
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.70749999999999</v>
+        <v>16.68279999999999</v>
       </c>
     </row>
     <row r="28">
@@ -984,7 +984,7 @@
         <v>-8.69</v>
       </c>
       <c r="E32" t="n">
-        <v>16.79819999999998</v>
+        <v>16.70239999999998</v>
       </c>
     </row>
     <row r="33">
@@ -1052,7 +1052,7 @@
         <v>-9.050000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>17.33670000000001</v>
+        <v>17.23460000000001</v>
       </c>
     </row>
     <row r="37">
@@ -1086,7 +1086,7 @@
         <v>-9.09</v>
       </c>
       <c r="E38" t="n">
-        <v>16.50809999999998</v>
+        <v>16.72329999999999</v>
       </c>
     </row>
     <row r="39">
@@ -1222,7 +1222,7 @@
         <v>-8.09</v>
       </c>
       <c r="E46" t="n">
-        <v>17.1209</v>
+        <v>17.0975</v>
       </c>
     </row>
     <row r="47">
@@ -1358,7 +1358,7 @@
         <v>-8.01</v>
       </c>
       <c r="E54" t="n">
-        <v>16.5427</v>
+        <v>16.6382</v>
       </c>
     </row>
     <row r="55">
@@ -1375,7 +1375,7 @@
         <v>-10.06</v>
       </c>
       <c r="E55" t="n">
-        <v>16.6748</v>
+        <v>16.64280000000001</v>
       </c>
     </row>
     <row r="56">
@@ -1392,7 +1392,7 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.6516</v>
+        <v>16.7377</v>
       </c>
     </row>
     <row r="57">
@@ -1579,7 +1579,7 @@
         <v>-6.43</v>
       </c>
       <c r="E67" t="n">
-        <v>17.11710000000002</v>
+        <v>17.15940000000002</v>
       </c>
     </row>
     <row r="68">
@@ -1613,7 +1613,7 @@
         <v>-6.88</v>
       </c>
       <c r="E69" t="n">
-        <v>17.17490000000003</v>
+        <v>17.17860000000003</v>
       </c>
     </row>
     <row r="70">
@@ -1664,7 +1664,7 @@
         <v>-7.37</v>
       </c>
       <c r="E72" t="n">
-        <v>16.6316</v>
+        <v>16.5259</v>
       </c>
     </row>
     <row r="73">
@@ -1851,7 +1851,7 @@
         <v>-7.67</v>
       </c>
       <c r="E83" t="n">
-        <v>16.75279999999999</v>
+        <v>16.703</v>
       </c>
     </row>
     <row r="84">
@@ -1902,7 +1902,7 @@
         <v>-8.17</v>
       </c>
       <c r="E86" t="n">
-        <v>16.52830000000001</v>
+        <v>16.68580000000001</v>
       </c>
     </row>
     <row r="87">
@@ -1987,7 +1987,7 @@
         <v>-5.79</v>
       </c>
       <c r="E91" t="n">
-        <v>18.74400000000002</v>
+        <v>18.48800000000003</v>
       </c>
     </row>
     <row r="92">
@@ -2021,7 +2021,7 @@
         <v>-6.1</v>
       </c>
       <c r="E93" t="n">
-        <v>17.34990000000002</v>
+        <v>17.36780000000002</v>
       </c>
     </row>
     <row r="94">
@@ -2123,7 +2123,7 @@
         <v>-7.98</v>
       </c>
       <c r="E99" t="n">
-        <v>16.52</v>
+        <v>16.5099</v>
       </c>
     </row>
     <row r="100">
